--- a/biology/Histoire de la zoologie et de la botanique/Amédée_Coutance/Amédée_Coutance.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amédée_Coutance/Amédée_Coutance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Coutance</t>
+          <t>Amédée_Coutance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amédée Coutance (Amédée-Guillaume-Auguste), né le 8 août 1824 à Quimper et mort 19 février 1895 est un  pharmacien et botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Coutance</t>
+          <t>Amédée_Coutance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amédée Coutance étudie la pharmacie[1] de 1844 à 1846. À l'issue de ses études il entre dans le corps de santé de la marine. en 1866 il est nommé professeur d'histoire naturelle médicale et de pharmacologie à l'École navale de Brest, poste qu'il occupe jusqu'à sa retraite, en février 1881. Amédée Coutance est membre de la Société académique de Brest. 
-Il est officier de la légion d'honneur (18 janvier 1881)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amédée Coutance étudie la pharmacie de 1844 à 1846. À l'issue de ses études il entre dans le corps de santé de la marine. en 1866 il est nommé professeur d'histoire naturelle médicale et de pharmacologie à l'École navale de Brest, poste qu'il occupe jusqu'à sa retraite, en février 1881. Amédée Coutance est membre de la Société académique de Brest. 
+Il est officier de la légion d'honneur (18 janvier 1881).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Coutance</t>
+          <t>Amédée_Coutance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diamant et pierres précieuses, cristallographie, descriptions, emplois, évaluation, commerce, bijoux, joyaux, orfèvreries, au point de vue de leur histoire et de leur travail, Paris, 1881, ed.  J. Rothschild, 580 p. (autres auteurs : Édouard Jannettaz, Émile Vanderheym, Eugène Fontenay,   lire en ligne sur Gallica
 Empoisonneurs-empoisonnés. Venins et poisons, leur production et leurs fonctions pendant la vie, dangers et utilité pour l'homme, Paris 1888,  ed. J. Rothschild,  420 p. lire en ligne sur Gallica
@@ -552,9 +568,43 @@
 De la vie et des travaux de Charles Gaudichaud, membre de l'Institut, deuxième pharmacien en chef de la marine, Brest, 1869, ed. École de médecine navale, 50 p. lire en ligne sur Gallica
 La Fontaine et la philosophie naturelle, Paris, 1882, ed.   C. Reinwald,   65 p. lire en ligne sur Gallica
 Les Théories de la vie jugées dans l'œuf, Paris, 1886, ed. O. Doin, 103 p.  lire en ligne sur Gallica
-La lutte pour l'existence, Paris, 1882, ed. C. Reinwald , 524 p.
-Préface
-Des différentes formes de fleurs dans les plantes de la même espèce  par Charles Darwin, traduit de l'anglais par le Dr Édouard Heckel, Paris, 1878, C. Reinwald, 368 p.[3] lire en ligne sur Gallica</t>
+La lutte pour l'existence, Paris, 1882, ed. C. Reinwald , 524 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amédée_Coutance</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9d%C3%A9e_Coutance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des différentes formes de fleurs dans les plantes de la même espèce  par Charles Darwin, traduit de l'anglais par le Dr Édouard Heckel, Paris, 1878, C. Reinwald, 368 p. lire en ligne sur Gallica</t>
         </is>
       </c>
     </row>
